--- a/combine_same_prefix_column_test.xlsx
+++ b/combine_same_prefix_column_test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -395,14 +395,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="工作表1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
@@ -617,14 +617,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="工作表2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView zoomScale="147" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
@@ -666,6 +666,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 

--- a/combine_same_prefix_column_test.xlsx
+++ b/combine_same_prefix_column_test.xlsx
@@ -1,42 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiangkuanwei\PycharmProjects\combine_same_prefix_column_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="test_data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="test_總公司" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="輸出" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test_data" sheetId="1" r:id="rId1"/>
+    <sheet name="test_總公司" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+  <si>
+    <t>子公司</t>
+  </si>
+  <si>
+    <t>銷貨收入</t>
+  </si>
+  <si>
+    <t>營業利益</t>
+  </si>
+  <si>
+    <t>應收帳款</t>
+  </si>
+  <si>
+    <t>abc_1234</t>
+  </si>
+  <si>
+    <t>abc_1235</t>
+  </si>
+  <si>
+    <t>abc_1236</t>
+  </si>
+  <si>
+    <t>bcd_1234</t>
+  </si>
+  <si>
+    <t>bcd_1235</t>
+  </si>
+  <si>
+    <t>bcd_1236</t>
+  </si>
+  <si>
+    <t>cde_1234</t>
+  </si>
+  <si>
+    <t>cde_1235</t>
+  </si>
+  <si>
+    <t>cde_1236</t>
+  </si>
+  <si>
+    <t>qwe_1236</t>
+  </si>
+  <si>
+    <t>總公司</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>bcd</t>
+  </si>
+  <si>
+    <t>cde</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="新細明體"/>
+      <family val="3"/>
       <charset val="136"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,80 +120,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -394,383 +400,234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="工作表1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表1"/>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="10.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>子公司</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>銷貨收入</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>營業利益</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>應收帳款</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>abc_1234</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>abc_1235</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>abc_1236</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>81</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>bcd_1234</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>256</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>bcd_1235</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>25</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>625</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bcd_1236</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>36</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1296</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>cde_1234</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>49</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>2401</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>cde_1235</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>64</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>4096</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>cde_1236</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>81</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>6561</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>qwe_1236</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>81</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>6561</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>qwe_1236</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>100</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>10000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="工作表2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表2"/>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView zoomScale="147" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>總公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>bcd</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>cde</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>qwe</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>總公司</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>銷貨收入</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>營業利益</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>應收帳款</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>bcd</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>15</v>
-      </c>
-      <c r="C3" t="n">
-        <v>77</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>cde</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>24</v>
-      </c>
-      <c r="C4" t="n">
-        <v>194</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13058</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>qwe</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>19</v>
-      </c>
-      <c r="C5" t="n">
-        <v>181</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16561</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/combine_same_prefix_column_test.xlsx
+++ b/combine_same_prefix_column_test.xlsx
@@ -1,107 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiangkuanwei\PycharmProjects\combine_same_prefix_column_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test_data" sheetId="1" r:id="rId1"/>
-    <sheet name="test_總公司" sheetId="2" r:id="rId2"/>
+    <sheet name="test_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test_總公司" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="輸出" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>子公司</t>
-  </si>
-  <si>
-    <t>銷貨收入</t>
-  </si>
-  <si>
-    <t>營業利益</t>
-  </si>
-  <si>
-    <t>應收帳款</t>
-  </si>
-  <si>
-    <t>abc_1234</t>
-  </si>
-  <si>
-    <t>abc_1235</t>
-  </si>
-  <si>
-    <t>abc_1236</t>
-  </si>
-  <si>
-    <t>bcd_1234</t>
-  </si>
-  <si>
-    <t>bcd_1235</t>
-  </si>
-  <si>
-    <t>bcd_1236</t>
-  </si>
-  <si>
-    <t>cde_1234</t>
-  </si>
-  <si>
-    <t>cde_1235</t>
-  </si>
-  <si>
-    <t>cde_1236</t>
-  </si>
-  <si>
-    <t>qwe_1236</t>
-  </si>
-  <si>
-    <t>總公司</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>bcd</t>
-  </si>
-  <si>
-    <t>cde</t>
-  </si>
-  <si>
-    <t>qwe</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,21 +55,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,234 +394,383 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="工作表1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="127" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>子公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>銷貨收入</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>營業利益</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>應收帳款</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>abc_1234</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>abc_1235</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>abc_1236</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bcd_1234</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bcd_1235</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bcd_1236</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>cde_1234</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>49</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>cde_1235</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>64</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>cde_1236</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="C10" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D10" t="n">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>qwe_1236</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>36</v>
-      </c>
-      <c r="D7">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C11" t="n">
+        <v>81</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>qwe_1236</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>49</v>
-      </c>
-      <c r="D8">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>64</v>
-      </c>
-      <c r="D9">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>81</v>
-      </c>
-      <c r="D10">
-        <v>6561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>81</v>
-      </c>
-      <c r="D11">
-        <v>6561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>100</v>
       </c>
-      <c r="D12">
-        <v>10000</v>
+      <c r="D12" t="n">
+        <v>1.234</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="工作表2">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView zoomScale="147" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>總公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bcd</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cde</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>總公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>銷貨收入</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>營業利益</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>應收帳款</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bcd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
+      <c r="C3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cde</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>194</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13058</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6562.234</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/combine_same_prefix_column_test.xlsx
+++ b/combine_same_prefix_column_test.xlsx
@@ -9,6 +9,12 @@
     <sheet name="test_data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="test_總公司" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="輸出" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="輸出1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="輸出2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="輸出3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="輸出4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="輸出5" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="輸出6" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -773,4 +779,634 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>總公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>銷貨收入</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>營業利益</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>應收帳款</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bcd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cde</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>194</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13058</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6562.234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>總公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>銷貨收入</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>營業利益</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>應收帳款</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bcd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cde</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>194</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13058</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6562.234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>總公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>銷貨收入</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>營業利益</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>應收帳款</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bcd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cde</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>194</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13058</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6562.234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>總公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>銷貨收入</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>營業利益</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>應收帳款</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bcd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cde</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>194</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13058</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6562.234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>總公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>銷貨收入</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>營業利益</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>應收帳款</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bcd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cde</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>194</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13058</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6562.234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>總公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>銷貨收入</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>營業利益</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>應收帳款</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bcd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cde</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>194</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13058</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6562.234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/combine_same_prefix_column_test.xlsx
+++ b/combine_same_prefix_column_test.xlsx
@@ -1,110 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiangkuanwei\PycharmProjects\combine_same_prefix_column_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test_data" sheetId="1" r:id="rId1"/>
-    <sheet name="test_總公司" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_總公司" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="輸出" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
-  <si>
-    <t>子公司</t>
-  </si>
-  <si>
-    <t>銷貨收入</t>
-  </si>
-  <si>
-    <t>營業利益</t>
-  </si>
-  <si>
-    <t>應收帳款</t>
-  </si>
-  <si>
-    <t>abc_1234</t>
-  </si>
-  <si>
-    <t>abc_1235</t>
-  </si>
-  <si>
-    <t>abc_1236</t>
-  </si>
-  <si>
-    <t>bcd_1234</t>
-  </si>
-  <si>
-    <t>bcd_1235</t>
-  </si>
-  <si>
-    <t>bcd_1236</t>
-  </si>
-  <si>
-    <t>cde_1234</t>
-  </si>
-  <si>
-    <t>cde_1235</t>
-  </si>
-  <si>
-    <t>cde_1236</t>
-  </si>
-  <si>
-    <t>qwe_1236</t>
-  </si>
-  <si>
-    <t>總公司</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>bcd</t>
-  </si>
-  <si>
-    <t>cde</t>
-  </si>
-  <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>Piu</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -123,21 +55,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -403,239 +394,406 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="工作表1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="127" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>子公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>銷貨收入</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>營業利益</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>應收帳款</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>abc_1234</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>abc_1235</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>abc_1236</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bcd_1234</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bcd_1235</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bcd_1236</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>cde_1234</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>49</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>cde_1235</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>64</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>cde_1236</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="C10" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D10" t="n">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>qwe_1236</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>36</v>
-      </c>
-      <c r="D7">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C11" t="n">
+        <v>81</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>qwe_1236</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>49</v>
-      </c>
-      <c r="D8">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>64</v>
-      </c>
-      <c r="D9">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>81</v>
-      </c>
-      <c r="D10">
-        <v>6561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>81</v>
-      </c>
-      <c r="D11">
-        <v>6561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>100</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>1.234</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="工作表2">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>總公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bcd</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cde</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Piu</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>總公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>銷貨收入</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>營業利益</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>應收帳款</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bcd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cde</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>194</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13058</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>19</v>
       </c>
+      <c r="C5" t="n">
+        <v>181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6562.234</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Piu</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/combine_same_prefix_column_test.xlsx
+++ b/combine_same_prefix_column_test.xlsx
@@ -1,113 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiangkuanwei\PycharmProjects\combine_same_prefix_column_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test_data" sheetId="1" r:id="rId1"/>
-    <sheet name="test_總公司" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_總公司" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="輸出" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
-  <si>
-    <t>子公司</t>
-  </si>
-  <si>
-    <t>銷貨收入</t>
-  </si>
-  <si>
-    <t>營業利益</t>
-  </si>
-  <si>
-    <t>應收帳款</t>
-  </si>
-  <si>
-    <t>abc_1234</t>
-  </si>
-  <si>
-    <t>abc_1235</t>
-  </si>
-  <si>
-    <t>abc_1236</t>
-  </si>
-  <si>
-    <t>bcd_1234</t>
-  </si>
-  <si>
-    <t>bcd_1235</t>
-  </si>
-  <si>
-    <t>bcd_1236</t>
-  </si>
-  <si>
-    <t>cde_1234</t>
-  </si>
-  <si>
-    <t>cde_1235</t>
-  </si>
-  <si>
-    <t>cde_1236</t>
-  </si>
-  <si>
-    <t>qwe_1236</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>總公司</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>bcd</t>
-  </si>
-  <si>
-    <t>cde</t>
-  </si>
-  <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>Piu</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -125,22 +54,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,253 +395,422 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="工作表1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="20" customWidth="1" style="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>子公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>銷貨收入</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>營業利益</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>應收帳款</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>abc_1234</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>abc_1235</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>abc_1236</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bcd_1234</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bcd_1235</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bcd_1236</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>cde_1234</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>49</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>cde_1235</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>64</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>cde_1236</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="C10" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D10" t="n">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>qwe_1236</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>36</v>
-      </c>
-      <c r="D7">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C11" t="n">
+        <v>81</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>qwe_1236</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>49</v>
-      </c>
-      <c r="D8">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>64</v>
-      </c>
-      <c r="D9">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>81</v>
-      </c>
-      <c r="D10">
-        <v>6561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>81</v>
-      </c>
-      <c r="D11">
-        <v>6561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>100</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>1.234</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>qwe_1236</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C13" t="n">
         <v>100</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>1.234</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="工作表2">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView zoomScale="147" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>總公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bcd</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cde</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Piu</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>總公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>銷貨收入</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>營業利益</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>應收帳款</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bcd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
+      <c r="C3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cde</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>194</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13058</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>281</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6563.468000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Piu</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>